--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P5_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.42003702099417</v>
+        <v>1083.518829430944</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>5.575377337951518</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>894</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>38.9259431076176</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>27.30976054153059</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.25177335971647</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.57537733795152</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,146 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4099999999994</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999994</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999994</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999987</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9200000000002</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.9300000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.5850000000002</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>108.7650000000002</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>115.85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>158.8950000000009</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>160.3750000000009</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.9450000000009</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>164.0850000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>167.35</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>158.8950000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>160.3750000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>165.9450000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>164.0850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>167.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4099999999994</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>156.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>150.5049999999994</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>154.0549999999994</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>149.7249999999994</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
@@ -1604,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2248,116 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
